--- a/StateTable_Assignement2_ParkJ.xlsx
+++ b/StateTable_Assignement2_ParkJ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpjpj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpjpj\Downloads\KAI-master\KAI-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2BD4C-DD3A-472C-82D8-2A9E1616745F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A13178E-E752-4791-9BC0-A37B13AE1D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15885" xr2:uid="{F03C42E5-1B9E-4EC7-90DE-06B763ECBA53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t>Event</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -138,9 +138,6 @@
     <t>Open</t>
   </si>
   <si>
-    <t>durability &gt;= 10</t>
-  </si>
-  <si>
     <t>Restoring</t>
   </si>
   <si>
@@ -148,94 +145,93 @@
   </si>
   <si>
     <t>restoration &gt;= 3</t>
+  </si>
+  <si>
+    <t>thirst-=2, gold--
+Print 'Glug glug glug'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold+2, thirst+1 tired+1
+Print 'Miner is digging.'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirst +1
+Print 'Walk Walk Walk'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>State (Miner)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>State (Mine)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability +1
+Print 'Mine: limit X/10'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tired -1
+Print 'Zzz...'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print "Saddly unemployed while mine is closed... Lets wait"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold -2, bank+2
+Print 'deposit gold nuggets'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(none)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirst+1
+Print 'Walk Walk Walk'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isMineOpen=false
+Print 'Mine is closing! Time to rest.'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>restoration=0, readyToOpen=false
 EventBus.DoEvent('MineClose')
-Print 'Needs fixing'</t>
+Print 'Mine: Needs fixing. Please leave the mine.'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>restoration +1
+Print 'Mine: Fixing... (X/3)'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>readyToOpen=true
+Print 'Mine: Restoration almost done...'</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>durability=0, restoration=0
 readyToOpen=false
 EventBus.DoEvent('MineOpen')
-Print 'Restoration complete'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>thirst-=2, gold--
-Print 'Glug glug glug'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>readyToOpen=true
-Print 'almost done...'</t>
+Print 'Mine: Restoration complete. Mine open.'</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>isMineOpen=true
-Print 'Mine is open again!'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isMineOpen=false
-Print 'Mine is closing!'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold+2, thirst+1 tired+1
-Print 'Miner is digging.'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>thirst +1
-Print 'Walk Walk Walk'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>thirst++ (moving)
-Print 'Walk Walk Walk'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>State (Miner)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>State (Mine)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>durability +1
-Print 'Mine: limit X/10'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>restoration +1
-Print 'Fixing... (X/3)'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>thirst++ 
-Print 'Walk Walk Walk'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tired -1
-Print 'Zzz...'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print "Saddly unemployed while mine is closed... Lets wait"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold -2, bank+2
-Print 'deposit gold nuggets'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(none)</t>
+Print 'Mine is open again! Back to work!'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability &gt;= 10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538D726E-A440-4E18-805C-0680637EC54B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -763,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -780,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -797,7 +793,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -814,7 +810,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -831,7 +827,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -848,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -865,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -882,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -899,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -916,7 +912,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -933,7 +929,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -950,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -967,7 +963,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -984,7 +980,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1001,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -1018,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -1035,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -1052,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -1103,7 +1099,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -1120,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1137,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
@@ -1145,7 +1141,7 @@
     </row>
     <row r="26" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -1168,13 +1164,13 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -1188,7 +1184,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>28</v>
@@ -1196,16 +1192,16 @@
     </row>
     <row r="29" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
@@ -1213,24 +1209,24 @@
     </row>
     <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>15</v>
@@ -1242,7 +1238,7 @@
         <v>45</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
